--- a/data/Progress_charts.xlsx
+++ b/data/Progress_charts.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28619"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c6047bb88935478/Documents/GitHub/phillongworth.github.io/"/>
@@ -21,7 +21,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Bridleway_progress_chart!$A$1:$E$3</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Rides_completed'!$A$1:$B$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -90,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,24 +128,24 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -169,10 +169,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{0BF655A7-9E52-432C-AA90-CDB4A47A46E8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
@@ -205,7 +201,7 @@
     <tableColumn id="1" xr3:uid="{73C25EBF-9B2F-4901-A1D5-7C0A7BC7DC7B}" uniqueName="1" name="Bridleways" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{CC622643-AADC-4449-B050-2526CF44255D}" uniqueName="2" name="completed" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{0D60AE33-707F-48C3-8B59-AEC67863C5DF}" uniqueName="3" name="remaining" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C30DD4B2-2FC0-4398-A3F0-CBD7ED048C65}" uniqueName="4" name="% completed" queryTableFieldId="4" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{C30DD4B2-2FC0-4398-A3F0-CBD7ED048C65}" uniqueName="4" name="% completed" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{DD56D78A-D762-485A-9040-A3A7BC1C7E1D}" uniqueName="5" name="Total" queryTableFieldId="5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -217,7 +213,7 @@
   <autoFilter ref="A1:B3" xr:uid="{A526F0DA-D973-44C9-BBBA-DEC4140E01B1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2E939C45-826A-4207-891F-E31F8374BFFB}" uniqueName="1" name="Rides completed" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{F2304224-F77A-4141-8EDA-EC8B6286BD26}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="0" dataCellStyle="Comma"/>
+    <tableColumn id="2" xr3:uid="{F2304224-F77A-4141-8EDA-EC8B6286BD26}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,16 +542,16 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -589,7 +585,7 @@
         <v>144.48489529505224</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -622,13 +618,13 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -636,7 +632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -644,7 +640,7 @@
         <v>105.25862691879422</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -668,7 +664,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -678,9 +674,5 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE96F67-4D55-4B71-B91E-9E14582F543B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CE96F67-4D55-4B71-B91E-9E14582F543B}"/>
 </file>